--- a/APPD_LAB_DETAILS.xlsx
+++ b/APPD_LAB_DETAILS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12ea3443da50b1a8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3569AA14-81C5-4241-925A-51DDD0E4661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{3569AA14-81C5-4241-925A-51DDD0E4661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF50743E-46D3-40B8-9A94-779CBA24F07C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A9ADF650-3201-4E59-8732-722D9C83084B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9ADF650-3201-4E59-8732-722D9C83084B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,48 @@
   </si>
   <si>
     <t>13.233.123.93</t>
+  </si>
+  <si>
+    <t>WIN_IP_Address</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>13.201.47.117</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>g)HQzIo5pD*mdyXb.p6NxwerZ-EpLdz?</t>
+  </si>
+  <si>
+    <t>13.232.8.245</t>
+  </si>
+  <si>
+    <t>b4hv?p$Jgi!-PvMdx?K7?y!;pf=aH&amp;yb</t>
+  </si>
+  <si>
+    <t>52.66.201.47</t>
+  </si>
+  <si>
+    <t>&amp;a$Qr)OYMb2uR0N@tiTpusiEVszgPesd</t>
+  </si>
+  <si>
+    <t>65.0.205.20</t>
+  </si>
+  <si>
+    <t>HJ=*.LybO?y6fV6)kve)2o%TDB?D7?.z</t>
+  </si>
+  <si>
+    <t>13.127.48.86</t>
+  </si>
+  <si>
+    <t>hi.-pqU)8.eJFoMxAr$ij7lY2lg)GrAi</t>
   </si>
 </sst>
 </file>
@@ -490,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD0A8AD-A451-44A9-AFF6-F392D5E3F55B}">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,9 +545,12 @@
     <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="9" max="9" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,8 +569,17 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -544,8 +598,17 @@
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -564,8 +627,17 @@
       <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -584,8 +656,17 @@
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -604,8 +685,17 @@
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -623,6 +713,15 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/APPD_LAB_DETAILS.xlsx
+++ b/APPD_LAB_DETAILS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12ea3443da50b1a8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{3569AA14-81C5-4241-925A-51DDD0E4661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF50743E-46D3-40B8-9A94-779CBA24F07C}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{3569AA14-81C5-4241-925A-51DDD0E4661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71297D8-D50C-4D3E-AA0E-063428D465EF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9ADF650-3201-4E59-8732-722D9C83084B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>hi.-pqU)8.eJFoMxAr$ij7lY2lg)GrAi</t>
+  </si>
+  <si>
+    <t>IP Address2</t>
+  </si>
+  <si>
+    <t>13.201.115.209</t>
+  </si>
+  <si>
+    <t>15.206.116.84</t>
+  </si>
+  <si>
+    <t>13.201.126.69</t>
+  </si>
+  <si>
+    <t>13.232.35.243</t>
+  </si>
+  <si>
+    <t>13.201.67.157</t>
   </si>
 </sst>
 </file>
@@ -206,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -216,6 +234,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -233,6 +254,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD0A8AD-A451-44A9-AFF6-F392D5E3F55B}">
-  <dimension ref="A2:I7"/>
+  <dimension ref="A2:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,9 +573,10 @@
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" customWidth="1"/>
     <col min="9" max="9" width="51.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,8 +604,11 @@
       <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -607,8 +636,11 @@
       <c r="I3" t="s">
         <v>31</v>
       </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -636,8 +668,11 @@
       <c r="I4" t="s">
         <v>33</v>
       </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -665,8 +700,11 @@
       <c r="I5" t="s">
         <v>35</v>
       </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -694,8 +732,11 @@
       <c r="I6" t="s">
         <v>37</v>
       </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -722,6 +763,9 @@
       </c>
       <c r="I7" t="s">
         <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/APPD_LAB_DETAILS.xlsx
+++ b/APPD_LAB_DETAILS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12ea3443da50b1a8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{3569AA14-81C5-4241-925A-51DDD0E4661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71297D8-D50C-4D3E-AA0E-063428D465EF}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{3569AA14-81C5-4241-925A-51DDD0E4661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B00C253-BA11-43A8-A944-F4F55C48AD6F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9ADF650-3201-4E59-8732-722D9C83084B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,24 @@
   </si>
   <si>
     <t>13.201.67.157</t>
+  </si>
+  <si>
+    <t>IP Address 3</t>
+  </si>
+  <si>
+    <t>13.232.89.90</t>
+  </si>
+  <si>
+    <t>13.201.228.113</t>
+  </si>
+  <si>
+    <t>3.109.3.143</t>
+  </si>
+  <si>
+    <t>13.233.63.30</t>
+  </si>
+  <si>
+    <t>3.109.59.156</t>
   </si>
 </sst>
 </file>
@@ -557,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD0A8AD-A451-44A9-AFF6-F392D5E3F55B}">
-  <dimension ref="A2:J7"/>
+  <dimension ref="A2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,9 +592,10 @@
     <col min="8" max="8" width="20.44140625" customWidth="1"/>
     <col min="9" max="9" width="51.5546875" customWidth="1"/>
     <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,8 +626,11 @@
       <c r="J2" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -639,8 +661,11 @@
       <c r="J3" t="s">
         <v>41</v>
       </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -671,8 +696,11 @@
       <c r="J4" t="s">
         <v>42</v>
       </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -703,8 +731,11 @@
       <c r="J5" t="s">
         <v>43</v>
       </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -735,8 +766,11 @@
       <c r="J6" t="s">
         <v>44</v>
       </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -766,6 +800,9 @@
       </c>
       <c r="J7" t="s">
         <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/APPD_LAB_DETAILS.xlsx
+++ b/APPD_LAB_DETAILS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12ea3443da50b1a8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{3569AA14-81C5-4241-925A-51DDD0E4661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B00C253-BA11-43A8-A944-F4F55C48AD6F}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{3569AA14-81C5-4241-925A-51DDD0E4661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF25528-CD87-41C0-9BA5-75805D07B8B7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9ADF650-3201-4E59-8732-722D9C83084B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>3.109.59.156</t>
+  </si>
+  <si>
+    <t>IP Address 4</t>
+  </si>
+  <si>
+    <t>13.201.71.98</t>
+  </si>
+  <si>
+    <t>13.233.73.254</t>
+  </si>
+  <si>
+    <t>13.233.93.60</t>
+  </si>
+  <si>
+    <t>13.126.114.210</t>
+  </si>
+  <si>
+    <t>52.66.196.55</t>
   </si>
 </sst>
 </file>
@@ -575,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD0A8AD-A451-44A9-AFF6-F392D5E3F55B}">
-  <dimension ref="A2:K7"/>
+  <dimension ref="A2:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,10 +610,11 @@
     <col min="8" max="8" width="20.44140625" customWidth="1"/>
     <col min="9" max="9" width="51.5546875" customWidth="1"/>
     <col min="10" max="10" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,8 +648,11 @@
       <c r="K2" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -664,8 +686,11 @@
       <c r="K3" t="s">
         <v>47</v>
       </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -699,8 +724,11 @@
       <c r="K4" t="s">
         <v>48</v>
       </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -734,8 +762,11 @@
       <c r="K5" t="s">
         <v>49</v>
       </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -769,8 +800,11 @@
       <c r="K6" t="s">
         <v>50</v>
       </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -803,6 +837,9 @@
       </c>
       <c r="K7" t="s">
         <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/APPD_LAB_DETAILS.xlsx
+++ b/APPD_LAB_DETAILS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12ea3443da50b1a8/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{3569AA14-81C5-4241-925A-51DDD0E4661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF25528-CD87-41C0-9BA5-75805D07B8B7}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{3569AA14-81C5-4241-925A-51DDD0E4661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F78626B-CB9D-4B74-88BC-DDBD2008385F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9ADF650-3201-4E59-8732-722D9C83084B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -208,13 +208,46 @@
   </si>
   <si>
     <t>52.66.196.55</t>
+  </si>
+  <si>
+    <t>IP ADDRESS  -- 5</t>
+  </si>
+  <si>
+    <t>13.127.158.194</t>
+  </si>
+  <si>
+    <t>M%tcfMAd1PB3hRjAtEYf7zI!0VT-ef)T</t>
+  </si>
+  <si>
+    <t>35.154.124.42</t>
+  </si>
+  <si>
+    <t>35.154.147.246</t>
+  </si>
+  <si>
+    <t>65.2.69.222</t>
+  </si>
+  <si>
+    <t>3.109.209.207</t>
+  </si>
+  <si>
+    <t>V!t0K6*I9PWr*5%)W2dv2LfYYcxFQ=F7</t>
+  </si>
+  <si>
+    <t>aiYs6BVkj3XRo%HXGP7vn=WjLbs5wLin</t>
+  </si>
+  <si>
+    <t>BZZG?w!ZAcu5ASwp;YgP$Q;gECvdzOS9</t>
+  </si>
+  <si>
+    <t>2)WO5T-dL314)*5Wla%EHkPjRZ44!7P3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +271,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -274,6 +313,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -593,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD0A8AD-A451-44A9-AFF6-F392D5E3F55B}">
-  <dimension ref="A2:L7"/>
+  <dimension ref="A2:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,13 +648,16 @@
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" customWidth="1"/>
-    <col min="9" max="9" width="51.5546875" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" customWidth="1"/>
     <col min="10" max="10" width="19.44140625" customWidth="1"/>
     <col min="11" max="11" width="16.77734375" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,8 +694,17 @@
       <c r="L2" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -689,8 +741,17 @@
       <c r="L3" t="s">
         <v>53</v>
       </c>
+      <c r="M3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -727,8 +788,17 @@
       <c r="L4" t="s">
         <v>54</v>
       </c>
+      <c r="M4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -765,8 +835,17 @@
       <c r="L5" t="s">
         <v>55</v>
       </c>
+      <c r="M5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -803,8 +882,17 @@
       <c r="L6" t="s">
         <v>56</v>
       </c>
+      <c r="M6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -840,6 +928,15 @@
       </c>
       <c r="L7" t="s">
         <v>57</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
